--- a/visualizations.xlsx
+++ b/visualizations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="p2" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,7 +123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -179,175 +179,175 @@
             <c:numRef>
               <c:f>'p2'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41810</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41811</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41812</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41813</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41814</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41815</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41816</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41817</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41818</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41819</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41826</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41827</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41828</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41829</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41830</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41831</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41832</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41833</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41834</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41835</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41836</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41837</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41838</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41839</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41840</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41841</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41842</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41843</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41844</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41845</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41846</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41847</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41848</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41849</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41850</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41851</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41852</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41853</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41854</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41855</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41856</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41857</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41858</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41859</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41860</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41861</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41862</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41863</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41864</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41865</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41866</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41867</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41868</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41869</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41870</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41871</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,8 +540,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="845878192"/>
-        <c:axId val="845871120"/>
+        <c:axId val="2058063840"/>
+        <c:axId val="2058064928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -568,175 +568,175 @@
             <c:numRef>
               <c:f>'p2'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41810</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41811</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41812</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41813</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41814</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41815</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41816</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41817</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41818</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41819</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41826</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41827</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41828</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41829</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41830</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41831</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41832</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41833</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41834</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41835</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41836</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41837</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41838</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41839</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41840</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41841</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41842</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41843</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41844</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41845</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41846</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41847</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41848</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41849</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41850</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41851</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41852</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41853</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41854</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41855</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41856</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41857</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41858</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41859</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41860</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41861</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41862</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41863</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41864</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41865</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41866</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41867</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41868</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41869</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41870</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41871</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,17 +930,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="845879824"/>
-        <c:axId val="845879280"/>
+        <c:axId val="2058070368"/>
+        <c:axId val="2058062208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="845878192"/>
+        <c:axId val="2058063840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -977,14 +977,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845871120"/>
+        <c:crossAx val="2058064928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="845871120"/>
+        <c:axId val="2058064928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,12 +1035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845878192"/>
+        <c:crossAx val="2058063840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="845879280"/>
+        <c:axId val="2058062208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1079,26 +1079,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845879824"/>
+        <c:crossAx val="2058070368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
-        <c:axId val="845879824"/>
+      <c:catAx>
+        <c:axId val="2058070368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="845879280"/>
+        <c:crossAx val="2058062208"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1109,7 +1111,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1216,7 +1217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1273,175 +1273,175 @@
             <c:numRef>
               <c:f>'p3'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41810</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41811</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41812</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41813</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41814</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41815</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41816</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41817</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41818</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41819</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41833</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41834</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41835</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41836</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41837</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41838</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41839</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41840</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41841</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41842</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41843</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41844</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41845</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41846</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41847</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41848</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41849</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41850</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41851</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41852</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41853</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41854</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41855</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41856</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41857</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41858</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41859</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41860</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41861</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41862</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41863</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41864</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41865</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41866</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41867</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41868</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41869</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41870</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41871</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41872</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41873</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41874</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41875</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41876</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41877</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41878</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,8 +1634,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="826012368"/>
-        <c:axId val="826016720"/>
+        <c:axId val="2058068736"/>
+        <c:axId val="2058069280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1662,175 +1662,175 @@
             <c:numRef>
               <c:f>'p3'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41810</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41811</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41812</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41813</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41814</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41815</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41816</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41817</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41818</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41819</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41833</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41834</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41835</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41836</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41837</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41838</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41839</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41840</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41841</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41842</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41843</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41844</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41845</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41846</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41847</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41848</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41849</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41850</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41851</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41852</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41853</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41854</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41855</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41856</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41857</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41858</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41859</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41860</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41861</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41862</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41863</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41864</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41865</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41866</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41867</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41868</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41869</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41870</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41871</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41872</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41873</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41874</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41875</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41876</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41877</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41878</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,17 +2024,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="828414672"/>
-        <c:axId val="828413584"/>
+        <c:axId val="2058069824"/>
+        <c:axId val="2058066016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="826012368"/>
+        <c:axId val="2058068736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2071,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="826016720"/>
+        <c:crossAx val="2058069280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2080,7 +2080,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="826016720"/>
+        <c:axId val="2058069280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="826012368"/>
+        <c:crossAx val="2058068736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="828413584"/>
+        <c:axId val="2058066016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -2174,26 +2174,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828414672"/>
+        <c:crossAx val="2058069824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
-        <c:axId val="828414672"/>
+      <c:catAx>
+        <c:axId val="2058069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="828413584"/>
+        <c:crossAx val="2058066016"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2204,7 +2206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2368,175 +2369,175 @@
             <c:numRef>
               <c:f>'p5'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41811</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41812</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41813</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41814</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41815</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41816</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41817</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41818</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41819</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41820</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41821</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41822</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41823</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41824</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41825</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41826</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41827</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41828</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41829</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41830</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41831</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41832</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41833</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41834</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41835</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41836</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41837</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41838</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41839</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41840</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41841</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41842</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41843</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41844</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41845</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41846</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41847</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41848</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41849</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41850</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41851</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41852</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41853</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41854</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41855</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41856</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41857</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41858</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41859</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41860</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41861</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41862</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41863</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41864</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41865</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41866</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,8 +2730,8 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="845877648"/>
-        <c:axId val="845874928"/>
+        <c:axId val="2058074720"/>
+        <c:axId val="2058064384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2757,175 +2758,175 @@
             <c:numRef>
               <c:f>'p5'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41811</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41812</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41813</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41814</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41815</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41816</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41817</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41818</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41819</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41820</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41821</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41822</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41823</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41824</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41825</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41826</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41827</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41828</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41829</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41830</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41831</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41832</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41833</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41834</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41835</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41836</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41837</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41838</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41839</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41840</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41841</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41842</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41843</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41844</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41845</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41846</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41847</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41848</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41849</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41850</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41851</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41852</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41853</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41854</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41855</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41856</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41857</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41858</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41859</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41860</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41861</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41862</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41863</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41864</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41865</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41866</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,17 +3120,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="846694208"/>
-        <c:axId val="846687680"/>
+        <c:axId val="2058063296"/>
+        <c:axId val="2058070912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="845877648"/>
+        <c:axId val="2058074720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3166,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845874928"/>
+        <c:crossAx val="2058064384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3175,7 +3176,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="845874928"/>
+        <c:axId val="2058064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,12 +3227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845877648"/>
+        <c:crossAx val="2058074720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="846687680"/>
+        <c:axId val="2058070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -3269,26 +3270,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846694208"/>
+        <c:crossAx val="2058063296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
-        <c:axId val="846694208"/>
+      <c:catAx>
+        <c:axId val="2058063296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="846687680"/>
+        <c:crossAx val="2058070912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3463,175 +3466,175 @@
             <c:numRef>
               <c:f>'p7'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41829</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41830</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41831</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41832</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41833</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41834</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41835</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41836</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41837</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41838</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41839</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41840</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41841</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41842</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41843</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41844</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41845</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41846</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41847</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41848</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41849</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41850</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41851</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41852</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41853</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41854</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41855</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41856</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41857</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41858</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41859</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41860</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41861</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41862</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41863</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41864</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41865</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41866</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41867</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41868</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41869</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41870</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41871</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41872</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41873</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41874</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41875</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41876</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41877</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41878</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41879</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41880</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41881</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41882</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41883</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41884</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,8 +3827,8 @@
         </c:dLbls>
         <c:gapWidth val="11"/>
         <c:overlap val="-27"/>
-        <c:axId val="819143760"/>
-        <c:axId val="819145392"/>
+        <c:axId val="2058072000"/>
+        <c:axId val="2058061664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3852,175 +3855,175 @@
             <c:numRef>
               <c:f>'p7'!$B$1:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>41829</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41830</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41831</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41832</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41833</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41834</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41835</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41836</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41837</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41838</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41839</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41840</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41841</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41842</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41843</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41844</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41845</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41846</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41847</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41848</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41849</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41850</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41851</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41852</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41853</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41854</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41855</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41856</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41857</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41858</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41859</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41860</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41861</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41862</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41863</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41864</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41865</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41866</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41867</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41868</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41869</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41870</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41871</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41872</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41873</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41874</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41875</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41876</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41877</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41878</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41879</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41880</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41881</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41882</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41883</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41884</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,17 +4217,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="828409776"/>
-        <c:axId val="828411952"/>
+        <c:axId val="2058073632"/>
+        <c:axId val="2058072544"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="819143760"/>
+      <c:catAx>
+        <c:axId val="2058072000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4261,14 +4264,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819145392"/>
+        <c:crossAx val="2058061664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="819145392"/>
+        <c:axId val="2058061664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,12 +4323,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819143760"/>
+        <c:crossAx val="2058072000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="828411952"/>
+        <c:axId val="2058072544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -4362,26 +4366,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828409776"/>
+        <c:crossAx val="2058073632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
-        <c:axId val="828409776"/>
+      <c:catAx>
+        <c:axId val="2058073632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="828411952"/>
+        <c:crossAx val="2058072544"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7036,13 +7042,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7050,8 +7056,8 @@
       <c r="A1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>41810</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -7082,8 +7088,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>41811</v>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>25.366666670000001</v>
@@ -7114,8 +7120,8 @@
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>41812</v>
+      <c r="B3" s="2">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -7146,8 +7152,8 @@
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>41813</v>
+      <c r="B4" s="2">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>40.35</v>
@@ -7178,8 +7184,8 @@
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>41814</v>
+      <c r="B5" s="2">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -7210,8 +7216,8 @@
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>41815</v>
+      <c r="B6" s="2">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7242,8 +7248,8 @@
       <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>41816</v>
+      <c r="B7" s="2">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>67.533333330000005</v>
@@ -7274,8 +7280,8 @@
       <c r="A8" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>41817</v>
+      <c r="B8" s="2">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7306,8 +7312,8 @@
       <c r="A9" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
-        <v>41818</v>
+      <c r="B9" s="2">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7338,8 +7344,8 @@
       <c r="A10" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
-        <v>41819</v>
+      <c r="B10" s="2">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>40.1</v>
@@ -7370,8 +7376,8 @@
       <c r="A11" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
-        <v>41826</v>
+      <c r="B11" s="2">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -7402,8 +7408,8 @@
       <c r="A12" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>41827</v>
+      <c r="B12" s="2">
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7434,8 +7440,8 @@
       <c r="A13" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>41828</v>
+      <c r="B13" s="2">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7466,8 +7472,8 @@
       <c r="A14" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>41829</v>
+      <c r="B14" s="2">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7498,8 +7504,8 @@
       <c r="A15" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>41830</v>
+      <c r="B15" s="2">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>26.166666670000001</v>
@@ -7530,8 +7536,8 @@
       <c r="A16" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>41831</v>
+      <c r="B16" s="2">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7562,8 +7568,8 @@
       <c r="A17" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>41832</v>
+      <c r="B17" s="2">
+        <v>17</v>
       </c>
       <c r="C17">
         <v>80.933333329999996</v>
@@ -7594,8 +7600,8 @@
       <c r="A18" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>41833</v>
+      <c r="B18" s="2">
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7617,8 +7623,8 @@
       <c r="A19" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
-        <v>41834</v>
+      <c r="B19" s="2">
+        <v>19</v>
       </c>
       <c r="C19">
         <v>40.866666670000001</v>
@@ -7640,8 +7646,8 @@
       <c r="A20" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <v>41835</v>
+      <c r="B20" s="2">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -7663,8 +7669,8 @@
       <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>41836</v>
+      <c r="B21" s="2">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7686,8 +7692,8 @@
       <c r="A22" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
-        <v>41837</v>
+      <c r="B22" s="2">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>26.783333330000001</v>
@@ -7709,8 +7715,8 @@
       <c r="A23" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
-        <v>41838</v>
+      <c r="B23" s="2">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -7732,8 +7738,8 @@
       <c r="A24" t="b">
         <v>0</v>
       </c>
-      <c r="B24" s="1">
-        <v>41839</v>
+      <c r="B24" s="2">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -7755,8 +7761,8 @@
       <c r="A25" t="b">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
-        <v>41840</v>
+      <c r="B25" s="2">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>66.900000000000006</v>
@@ -7778,8 +7784,8 @@
       <c r="A26" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="1">
-        <v>41841</v>
+      <c r="B26" s="2">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7801,8 +7807,8 @@
       <c r="A27" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
-        <v>41842</v>
+      <c r="B27" s="2">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>39.683333330000004</v>
@@ -7824,8 +7830,8 @@
       <c r="A28" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="1">
-        <v>41843</v>
+      <c r="B28" s="2">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7847,8 +7853,8 @@
       <c r="A29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
-        <v>41844</v>
+      <c r="B29" s="2">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>25.65</v>
@@ -7870,8 +7876,8 @@
       <c r="A30" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
-        <v>41845</v>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7893,8 +7899,8 @@
       <c r="A31" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
-        <v>41846</v>
+      <c r="B31" s="2">
+        <v>31</v>
       </c>
       <c r="C31">
         <v>81.566666670000004</v>
@@ -7916,8 +7922,8 @@
       <c r="A32" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
-        <v>41847</v>
+      <c r="B32" s="2">
+        <v>32</v>
       </c>
       <c r="C32">
         <v>66.683333329999996</v>
@@ -7939,8 +7945,8 @@
       <c r="A33" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="1">
-        <v>41848</v>
+      <c r="B33" s="2">
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7962,8 +7968,8 @@
       <c r="A34" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="1">
-        <v>41849</v>
+      <c r="B34" s="2">
+        <v>34</v>
       </c>
       <c r="C34">
         <v>40.283333329999998</v>
@@ -7985,8 +7991,8 @@
       <c r="A35" t="b">
         <v>1</v>
       </c>
-      <c r="B35" s="1">
-        <v>41850</v>
+      <c r="B35" s="2">
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -8008,8 +8014,8 @@
       <c r="A36" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="1">
-        <v>41851</v>
+      <c r="B36" s="2">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>26.083333329999999</v>
@@ -8031,8 +8037,8 @@
       <c r="A37" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="1">
-        <v>41852</v>
+      <c r="B37" s="2">
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8054,8 +8060,8 @@
       <c r="A38" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="1">
-        <v>41853</v>
+      <c r="B38" s="2">
+        <v>38</v>
       </c>
       <c r="C38">
         <v>71.983333329999994</v>
@@ -8077,8 +8083,8 @@
       <c r="A39" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="1">
-        <v>41854</v>
+      <c r="B39" s="2">
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8100,8 +8106,8 @@
       <c r="A40" t="b">
         <v>1</v>
       </c>
-      <c r="B40" s="1">
-        <v>41855</v>
+      <c r="B40" s="2">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -8114,8 +8120,8 @@
       <c r="A41" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="1">
-        <v>41856</v>
+      <c r="B41" s="2">
+        <v>41</v>
       </c>
       <c r="C41">
         <v>40.633333329999999</v>
@@ -8128,8 +8134,8 @@
       <c r="A42" t="b">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
-        <v>41857</v>
+      <c r="B42" s="2">
+        <v>42</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -8142,8 +8148,8 @@
       <c r="A43" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="1">
-        <v>41858</v>
+      <c r="B43" s="2">
+        <v>43</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -8156,8 +8162,8 @@
       <c r="A44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="1">
-        <v>41859</v>
+      <c r="B44" s="2">
+        <v>44</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -8170,8 +8176,8 @@
       <c r="A45" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="1">
-        <v>41860</v>
+      <c r="B45" s="2">
+        <v>45</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -8184,8 +8190,8 @@
       <c r="A46" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="1">
-        <v>41861</v>
+      <c r="B46" s="2">
+        <v>46</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -8198,8 +8204,8 @@
       <c r="A47" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="1">
-        <v>41862</v>
+      <c r="B47" s="2">
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8212,8 +8218,8 @@
       <c r="A48" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="1">
-        <v>41863</v>
+      <c r="B48" s="2">
+        <v>48</v>
       </c>
       <c r="C48">
         <v>28.716666669999999</v>
@@ -8226,8 +8232,8 @@
       <c r="A49" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
-        <v>41864</v>
+      <c r="B49" s="2">
+        <v>49</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -8240,8 +8246,8 @@
       <c r="A50" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>41865</v>
+      <c r="B50" s="2">
+        <v>50</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -8254,8 +8260,8 @@
       <c r="A51" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
-        <v>41866</v>
+      <c r="B51" s="2">
+        <v>51</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -8268,8 +8274,8 @@
       <c r="A52" t="b">
         <v>1</v>
       </c>
-      <c r="B52" s="1">
-        <v>41867</v>
+      <c r="B52" s="2">
+        <v>52</v>
       </c>
       <c r="C52">
         <v>67.3</v>
@@ -8282,8 +8288,8 @@
       <c r="A53" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="1">
-        <v>41868</v>
+      <c r="B53" s="2">
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -8296,8 +8302,8 @@
       <c r="A54" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
-        <v>41869</v>
+      <c r="B54" s="2">
+        <v>54</v>
       </c>
       <c r="C54">
         <v>72.5</v>
@@ -8310,8 +8316,8 @@
       <c r="A55" t="b">
         <v>1</v>
       </c>
-      <c r="B55" s="1">
-        <v>41870</v>
+      <c r="B55" s="2">
+        <v>55</v>
       </c>
       <c r="C55">
         <v>60.633333329999999</v>
@@ -8324,8 +8330,8 @@
       <c r="A56" t="b">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
-        <v>41871</v>
+      <c r="B56" s="2">
+        <v>56</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -8336,7 +8342,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8344,22 +8351,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>41810</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -8372,8 +8379,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>41811</v>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>25.5</v>
@@ -8386,8 +8393,8 @@
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>41812</v>
+      <c r="B3" s="2">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>39.6</v>
@@ -8400,8 +8407,8 @@
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>41813</v>
+      <c r="B4" s="2">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8414,8 +8421,8 @@
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>41814</v>
+      <c r="B5" s="2">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>66.416666669999998</v>
@@ -8428,8 +8435,8 @@
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>41815</v>
+      <c r="B6" s="2">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8442,8 +8449,8 @@
       <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>41816</v>
+      <c r="B7" s="2">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>80.533333330000005</v>
@@ -8456,8 +8463,8 @@
       <c r="A8" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>41817</v>
+      <c r="B8" s="2">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8470,8 +8477,8 @@
       <c r="A9" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <v>41818</v>
+      <c r="B9" s="2">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8484,8 +8491,8 @@
       <c r="A10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>41819</v>
+      <c r="B10" s="2">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8498,8 +8505,8 @@
       <c r="A11" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
-        <v>41833</v>
+      <c r="B11" s="2">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8512,8 +8519,8 @@
       <c r="A12" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
-        <v>41834</v>
+      <c r="B12" s="2">
+        <v>12</v>
       </c>
       <c r="C12">
         <v>24.9</v>
@@ -8526,8 +8533,8 @@
       <c r="A13" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
-        <v>41835</v>
+      <c r="B13" s="2">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8540,8 +8547,8 @@
       <c r="A14" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>41836</v>
+      <c r="B14" s="2">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>40.983333330000001</v>
@@ -8554,8 +8561,8 @@
       <c r="A15" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>41837</v>
+      <c r="B15" s="2">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>67.433333329999996</v>
@@ -8568,8 +8575,8 @@
       <c r="A16" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>41838</v>
+      <c r="B16" s="2">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>26.666666670000001</v>
@@ -8582,8 +8589,8 @@
       <c r="A17" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>41839</v>
+      <c r="B17" s="2">
+        <v>17</v>
       </c>
       <c r="C17">
         <v>81.349999999999994</v>
@@ -8596,8 +8603,8 @@
       <c r="A18" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>41840</v>
+      <c r="B18" s="2">
+        <v>18</v>
       </c>
       <c r="C18">
         <v>40.333333330000002</v>
@@ -8610,8 +8617,8 @@
       <c r="A19" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
-        <v>41841</v>
+      <c r="B19" s="2">
+        <v>19</v>
       </c>
       <c r="C19">
         <v>25.8</v>
@@ -8624,8 +8631,8 @@
       <c r="A20" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <v>41842</v>
+      <c r="B20" s="2">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -8638,8 +8645,8 @@
       <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>41843</v>
+      <c r="B21" s="2">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -8652,8 +8659,8 @@
       <c r="A22" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
-        <v>41844</v>
+      <c r="B22" s="2">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>23.6</v>
@@ -8666,8 +8673,8 @@
       <c r="A23" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
-        <v>41845</v>
+      <c r="B23" s="2">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>40.25</v>
@@ -8680,8 +8687,8 @@
       <c r="A24" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
-        <v>41846</v>
+      <c r="B24" s="2">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>11.55</v>
@@ -8694,8 +8701,8 @@
       <c r="A25" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
-        <v>41847</v>
+      <c r="B25" s="2">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8708,8 +8715,8 @@
       <c r="A26" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
-        <v>41848</v>
+      <c r="B26" s="2">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -8722,8 +8729,8 @@
       <c r="A27" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
-        <v>41849</v>
+      <c r="B27" s="2">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>25.35</v>
@@ -8736,8 +8743,8 @@
       <c r="A28" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="1">
-        <v>41850</v>
+      <c r="B28" s="2">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>39.466666670000002</v>
@@ -8750,8 +8757,8 @@
       <c r="A29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
-        <v>41851</v>
+      <c r="B29" s="2">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -8764,8 +8771,8 @@
       <c r="A30" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
-        <v>41852</v>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
       <c r="C30">
         <v>23.35</v>
@@ -8778,8 +8785,8 @@
       <c r="A31" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
-        <v>41853</v>
+      <c r="B31" s="2">
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -8792,8 +8799,8 @@
       <c r="A32" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
-        <v>41854</v>
+      <c r="B32" s="2">
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -8806,8 +8813,8 @@
       <c r="A33" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
-        <v>41855</v>
+      <c r="B33" s="2">
+        <v>33</v>
       </c>
       <c r="C33">
         <v>39.466666670000002</v>
@@ -8820,8 +8827,8 @@
       <c r="A34" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="1">
-        <v>41856</v>
+      <c r="B34" s="2">
+        <v>34</v>
       </c>
       <c r="C34">
         <v>25.333333329999999</v>
@@ -8834,8 +8841,8 @@
       <c r="A35" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
-        <v>41857</v>
+      <c r="B35" s="2">
+        <v>35</v>
       </c>
       <c r="C35">
         <v>66.466666669999995</v>
@@ -8848,8 +8855,8 @@
       <c r="A36" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
-        <v>41858</v>
+      <c r="B36" s="2">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -8862,8 +8869,8 @@
       <c r="A37" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
-        <v>41859</v>
+      <c r="B37" s="2">
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8876,8 +8883,8 @@
       <c r="A38" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>41860</v>
+      <c r="B38" s="2">
+        <v>38</v>
       </c>
       <c r="C38">
         <v>25.3</v>
@@ -8890,8 +8897,8 @@
       <c r="A39" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
-        <v>41861</v>
+      <c r="B39" s="2">
+        <v>39</v>
       </c>
       <c r="C39">
         <v>39.65</v>
@@ -8904,8 +8911,8 @@
       <c r="A40" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="1">
-        <v>41862</v>
+      <c r="B40" s="2">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>66.650000000000006</v>
@@ -8918,8 +8925,8 @@
       <c r="A41" t="b">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
-        <v>41863</v>
+      <c r="B41" s="2">
+        <v>41</v>
       </c>
       <c r="C41">
         <v>39.683333330000004</v>
@@ -8932,8 +8939,8 @@
       <c r="A42" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="1">
-        <v>41864</v>
+      <c r="B42" s="2">
+        <v>42</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -8946,8 +8953,8 @@
       <c r="A43" t="b">
         <v>0</v>
       </c>
-      <c r="B43" s="1">
-        <v>41865</v>
+      <c r="B43" s="2">
+        <v>43</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -8960,8 +8967,8 @@
       <c r="A44" t="b">
         <v>0</v>
       </c>
-      <c r="B44" s="1">
-        <v>41866</v>
+      <c r="B44" s="2">
+        <v>44</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -8974,8 +8981,8 @@
       <c r="A45" t="b">
         <v>0</v>
       </c>
-      <c r="B45" s="1">
-        <v>41867</v>
+      <c r="B45" s="2">
+        <v>45</v>
       </c>
       <c r="C45">
         <v>82.2</v>
@@ -8988,8 +8995,8 @@
       <c r="A46" t="b">
         <v>0</v>
       </c>
-      <c r="B46" s="1">
-        <v>41868</v>
+      <c r="B46" s="2">
+        <v>46</v>
       </c>
       <c r="C46">
         <v>39.583333330000002</v>
@@ -9002,8 +9009,8 @@
       <c r="A47" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="1">
-        <v>41869</v>
+      <c r="B47" s="2">
+        <v>47</v>
       </c>
       <c r="C47">
         <v>67.366666670000001</v>
@@ -9016,8 +9023,8 @@
       <c r="A48" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="1">
-        <v>41870</v>
+      <c r="B48" s="2">
+        <v>48</v>
       </c>
       <c r="C48">
         <v>25.95</v>
@@ -9030,8 +9037,8 @@
       <c r="A49" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
-        <v>41871</v>
+      <c r="B49" s="2">
+        <v>49</v>
       </c>
       <c r="C49">
         <v>67.083333330000002</v>
@@ -9044,8 +9051,8 @@
       <c r="A50" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>41872</v>
+      <c r="B50" s="2">
+        <v>50</v>
       </c>
       <c r="C50">
         <v>27.383333329999999</v>
@@ -9058,8 +9065,8 @@
       <c r="A51" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
-        <v>41873</v>
+      <c r="B51" s="2">
+        <v>51</v>
       </c>
       <c r="C51">
         <v>83.933333329999996</v>
@@ -9072,8 +9079,8 @@
       <c r="A52" t="b">
         <v>1</v>
       </c>
-      <c r="B52" s="1">
-        <v>41874</v>
+      <c r="B52" s="2">
+        <v>52</v>
       </c>
       <c r="C52">
         <v>67.233333329999994</v>
@@ -9086,8 +9093,8 @@
       <c r="A53" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="1">
-        <v>41875</v>
+      <c r="B53" s="2">
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -9100,8 +9107,8 @@
       <c r="A54" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
-        <v>41876</v>
+      <c r="B54" s="2">
+        <v>54</v>
       </c>
       <c r="C54">
         <v>40.216666670000002</v>
@@ -9114,8 +9121,8 @@
       <c r="A55" t="b">
         <v>1</v>
       </c>
-      <c r="B55" s="1">
-        <v>41877</v>
+      <c r="B55" s="2">
+        <v>55</v>
       </c>
       <c r="C55">
         <v>21.6</v>
@@ -9128,8 +9135,8 @@
       <c r="A56" t="b">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
-        <v>41878</v>
+      <c r="B56" s="2">
+        <v>56</v>
       </c>
       <c r="C56">
         <v>26.016666669999999</v>
@@ -9140,7 +9147,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9148,21 +9156,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>41811</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -9175,8 +9183,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>41812</v>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>26.5</v>
@@ -9189,8 +9197,8 @@
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>41813</v>
+      <c r="B3" s="2">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>26.733333330000001</v>
@@ -9203,8 +9211,8 @@
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>41814</v>
+      <c r="B4" s="2">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>40.866666670000001</v>
@@ -9217,8 +9225,8 @@
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>41815</v>
+      <c r="B5" s="2">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9231,8 +9239,8 @@
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>41816</v>
+      <c r="B6" s="2">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>25.2</v>
@@ -9245,8 +9253,8 @@
       <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>41817</v>
+      <c r="B7" s="2">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>39.883333329999999</v>
@@ -9259,8 +9267,8 @@
       <c r="A8" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>41818</v>
+      <c r="B8" s="2">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -9273,8 +9281,8 @@
       <c r="A9" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <v>41819</v>
+      <c r="B9" s="2">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9287,8 +9295,8 @@
       <c r="A10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>41820</v>
+      <c r="B10" s="2">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>62.35</v>
@@ -9301,8 +9309,8 @@
       <c r="A11" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
-        <v>41821</v>
+      <c r="B11" s="2">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>40.216666670000002</v>
@@ -9315,8 +9323,8 @@
       <c r="A12" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
-        <v>41822</v>
+      <c r="B12" s="2">
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -9329,8 +9337,8 @@
       <c r="A13" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>41823</v>
+      <c r="B13" s="2">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -9343,8 +9351,8 @@
       <c r="A14" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>41824</v>
+      <c r="B14" s="2">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -9357,8 +9365,8 @@
       <c r="A15" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>41825</v>
+      <c r="B15" s="2">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -9371,8 +9379,8 @@
       <c r="A16" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>41826</v>
+      <c r="B16" s="2">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -9385,8 +9393,8 @@
       <c r="A17" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>41827</v>
+      <c r="B17" s="2">
+        <v>17</v>
       </c>
       <c r="C17">
         <v>25.95</v>
@@ -9399,8 +9407,8 @@
       <c r="A18" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>41828</v>
+      <c r="B18" s="2">
+        <v>18</v>
       </c>
       <c r="C18">
         <v>25.883333329999999</v>
@@ -9413,8 +9421,8 @@
       <c r="A19" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
-        <v>41829</v>
+      <c r="B19" s="2">
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -9427,8 +9435,8 @@
       <c r="A20" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <v>41830</v>
+      <c r="B20" s="2">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -9441,8 +9449,8 @@
       <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>41831</v>
+      <c r="B21" s="2">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>40.266666669999999</v>
@@ -9455,8 +9463,8 @@
       <c r="A22" t="b">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
-        <v>41832</v>
+      <c r="B22" s="2">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9469,8 +9477,8 @@
       <c r="A23" t="b">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
-        <v>41833</v>
+      <c r="B23" s="2">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>68.95</v>
@@ -9483,8 +9491,8 @@
       <c r="A24" t="b">
         <v>0</v>
       </c>
-      <c r="B24" s="1">
-        <v>41834</v>
+      <c r="B24" s="2">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -9497,8 +9505,8 @@
       <c r="A25" t="b">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
-        <v>41835</v>
+      <c r="B25" s="2">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>81.316666670000004</v>
@@ -9511,8 +9519,8 @@
       <c r="A26" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="1">
-        <v>41836</v>
+      <c r="B26" s="2">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -9525,8 +9533,8 @@
       <c r="A27" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
-        <v>41837</v>
+      <c r="B27" s="2">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -9539,8 +9547,8 @@
       <c r="A28" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="1">
-        <v>41838</v>
+      <c r="B28" s="2">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -9553,8 +9561,8 @@
       <c r="A29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
-        <v>41839</v>
+      <c r="B29" s="2">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -9567,8 +9575,8 @@
       <c r="A30" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
-        <v>41840</v>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -9581,8 +9589,8 @@
       <c r="A31" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
-        <v>41841</v>
+      <c r="B31" s="2">
+        <v>31</v>
       </c>
       <c r="C31">
         <v>25.25</v>
@@ -9595,8 +9603,8 @@
       <c r="A32" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
-        <v>41842</v>
+      <c r="B32" s="2">
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -9609,8 +9617,8 @@
       <c r="A33" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
-        <v>41843</v>
+      <c r="B33" s="2">
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -9623,8 +9631,8 @@
       <c r="A34" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="1">
-        <v>41844</v>
+      <c r="B34" s="2">
+        <v>34</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -9637,8 +9645,8 @@
       <c r="A35" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
-        <v>41845</v>
+      <c r="B35" s="2">
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -9651,8 +9659,8 @@
       <c r="A36" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
-        <v>41846</v>
+      <c r="B36" s="2">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9665,8 +9673,8 @@
       <c r="A37" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
-        <v>41847</v>
+      <c r="B37" s="2">
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9679,8 +9687,8 @@
       <c r="A38" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>41848</v>
+      <c r="B38" s="2">
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9693,8 +9701,8 @@
       <c r="A39" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
-        <v>41849</v>
+      <c r="B39" s="2">
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9707,8 +9715,8 @@
       <c r="A40" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="1">
-        <v>41850</v>
+      <c r="B40" s="2">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>25.516666669999999</v>
@@ -9721,8 +9729,8 @@
       <c r="A41" t="b">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
-        <v>41851</v>
+      <c r="B41" s="2">
+        <v>41</v>
       </c>
       <c r="C41">
         <v>25.2</v>
@@ -9735,8 +9743,8 @@
       <c r="A42" t="b">
         <v>0</v>
       </c>
-      <c r="B42" s="1">
-        <v>41852</v>
+      <c r="B42" s="2">
+        <v>42</v>
       </c>
       <c r="C42">
         <v>26.1</v>
@@ -9749,8 +9757,8 @@
       <c r="A43" t="b">
         <v>0</v>
       </c>
-      <c r="B43" s="1">
-        <v>41853</v>
+      <c r="B43" s="2">
+        <v>43</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -9763,8 +9771,8 @@
       <c r="A44" t="b">
         <v>0</v>
       </c>
-      <c r="B44" s="1">
-        <v>41854</v>
+      <c r="B44" s="2">
+        <v>44</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -9777,8 +9785,8 @@
       <c r="A45" t="b">
         <v>0</v>
       </c>
-      <c r="B45" s="1">
-        <v>41855</v>
+      <c r="B45" s="2">
+        <v>45</v>
       </c>
       <c r="C45">
         <v>25.31666667</v>
@@ -9791,8 +9799,8 @@
       <c r="A46" t="b">
         <v>0</v>
       </c>
-      <c r="B46" s="1">
-        <v>41856</v>
+      <c r="B46" s="2">
+        <v>46</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9805,8 +9813,8 @@
       <c r="A47" t="b">
         <v>0</v>
       </c>
-      <c r="B47" s="1">
-        <v>41857</v>
+      <c r="B47" s="2">
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9819,8 +9827,8 @@
       <c r="A48" t="b">
         <v>0</v>
       </c>
-      <c r="B48" s="1">
-        <v>41858</v>
+      <c r="B48" s="2">
+        <v>48</v>
       </c>
       <c r="C48">
         <v>25.18333333</v>
@@ -9833,8 +9841,8 @@
       <c r="A49" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
-        <v>41859</v>
+      <c r="B49" s="2">
+        <v>49</v>
       </c>
       <c r="C49">
         <v>25.883333329999999</v>
@@ -9847,8 +9855,8 @@
       <c r="A50" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>41860</v>
+      <c r="B50" s="2">
+        <v>50</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -9861,8 +9869,8 @@
       <c r="A51" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
-        <v>41861</v>
+      <c r="B51" s="2">
+        <v>51</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -9875,8 +9883,8 @@
       <c r="A52" t="b">
         <v>1</v>
       </c>
-      <c r="B52" s="1">
-        <v>41862</v>
+      <c r="B52" s="2">
+        <v>52</v>
       </c>
       <c r="C52">
         <v>26.1</v>
@@ -9889,8 +9897,8 @@
       <c r="A53" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="1">
-        <v>41863</v>
+      <c r="B53" s="2">
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -9903,8 +9911,8 @@
       <c r="A54" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
-        <v>41864</v>
+      <c r="B54" s="2">
+        <v>54</v>
       </c>
       <c r="C54">
         <v>25.633333329999999</v>
@@ -9917,8 +9925,8 @@
       <c r="A55" t="b">
         <v>1</v>
       </c>
-      <c r="B55" s="1">
-        <v>41865</v>
+      <c r="B55" s="2">
+        <v>55</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9931,8 +9939,8 @@
       <c r="A56" t="b">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
-        <v>41866</v>
+      <c r="B56" s="2">
+        <v>56</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -9943,7 +9951,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9951,21 +9960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>41829</v>
+      <c r="B1" s="2">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -9978,8 +9987,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>41830</v>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>21.633333329999999</v>
@@ -9992,8 +10001,8 @@
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>41831</v>
+      <c r="B3" s="2">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10006,8 +10015,8 @@
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>41832</v>
+      <c r="B4" s="2">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10020,8 +10029,8 @@
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>41833</v>
+      <c r="B5" s="2">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10034,8 +10043,8 @@
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>41834</v>
+      <c r="B6" s="2">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>24.366666670000001</v>
@@ -10048,8 +10057,8 @@
       <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>41835</v>
+      <c r="B7" s="2">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>39.833333330000002</v>
@@ -10062,8 +10071,8 @@
       <c r="A8" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
-        <v>41836</v>
+      <c r="B8" s="2">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -10076,8 +10085,8 @@
       <c r="A9" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <v>41837</v>
+      <c r="B9" s="2">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10090,8 +10099,8 @@
       <c r="A10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>41838</v>
+      <c r="B10" s="2">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>25.116666670000001</v>
@@ -10104,8 +10113,8 @@
       <c r="A11" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
-        <v>41839</v>
+      <c r="B11" s="2">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10118,8 +10127,8 @@
       <c r="A12" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
-        <v>41840</v>
+      <c r="B12" s="2">
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10132,8 +10141,8 @@
       <c r="A13" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
-        <v>41841</v>
+      <c r="B13" s="2">
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -10146,8 +10155,8 @@
       <c r="A14" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="1">
-        <v>41842</v>
+      <c r="B14" s="2">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>14.383333329999999</v>
@@ -10160,8 +10169,8 @@
       <c r="A15" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
-        <v>41843</v>
+      <c r="B15" s="2">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10174,8 +10183,8 @@
       <c r="A16" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="1">
-        <v>41844</v>
+      <c r="B16" s="2">
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10188,8 +10197,8 @@
       <c r="A17" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="1">
-        <v>41845</v>
+      <c r="B17" s="2">
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10202,8 +10211,8 @@
       <c r="A18" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="1">
-        <v>41846</v>
+      <c r="B18" s="2">
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10216,8 +10225,8 @@
       <c r="A19" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="1">
-        <v>41847</v>
+      <c r="B19" s="2">
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10230,8 +10239,8 @@
       <c r="A20" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <v>41848</v>
+      <c r="B20" s="2">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10244,8 +10253,8 @@
       <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
-        <v>41849</v>
+      <c r="B21" s="2">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10258,8 +10267,8 @@
       <c r="A22" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
-        <v>41850</v>
+      <c r="B22" s="2">
+        <v>22</v>
       </c>
       <c r="C22">
         <v>25.483333330000001</v>
@@ -10272,8 +10281,8 @@
       <c r="A23" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="1">
-        <v>41851</v>
+      <c r="B23" s="2">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>72.666666669999998</v>
@@ -10286,8 +10295,8 @@
       <c r="A24" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
-        <v>41852</v>
+      <c r="B24" s="2">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10300,8 +10309,8 @@
       <c r="A25" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="1">
-        <v>41853</v>
+      <c r="B25" s="2">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10314,8 +10323,8 @@
       <c r="A26" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
-        <v>41854</v>
+      <c r="B26" s="2">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -10328,8 +10337,8 @@
       <c r="A27" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="1">
-        <v>41855</v>
+      <c r="B27" s="2">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10342,8 +10351,8 @@
       <c r="A28" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="1">
-        <v>41856</v>
+      <c r="B28" s="2">
+        <v>28</v>
       </c>
       <c r="C28">
         <v>30.55</v>
@@ -10356,8 +10365,8 @@
       <c r="A29" t="b">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
-        <v>41857</v>
+      <c r="B29" s="2">
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -10370,8 +10379,8 @@
       <c r="A30" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="1">
-        <v>41858</v>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
       <c r="C30">
         <v>75.766666670000006</v>
@@ -10384,8 +10393,8 @@
       <c r="A31" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
-        <v>41859</v>
+      <c r="B31" s="2">
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -10398,8 +10407,8 @@
       <c r="A32" t="b">
         <v>0</v>
       </c>
-      <c r="B32" s="1">
-        <v>41860</v>
+      <c r="B32" s="2">
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -10412,8 +10421,8 @@
       <c r="A33" t="b">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
-        <v>41861</v>
+      <c r="B33" s="2">
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -10426,8 +10435,8 @@
       <c r="A34" t="b">
         <v>0</v>
       </c>
-      <c r="B34" s="1">
-        <v>41862</v>
+      <c r="B34" s="2">
+        <v>34</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -10440,8 +10449,8 @@
       <c r="A35" t="b">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
-        <v>41863</v>
+      <c r="B35" s="2">
+        <v>35</v>
       </c>
       <c r="C35">
         <v>29.283333330000001</v>
@@ -10454,8 +10463,8 @@
       <c r="A36" t="b">
         <v>0</v>
       </c>
-      <c r="B36" s="1">
-        <v>41864</v>
+      <c r="B36" s="2">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -10468,8 +10477,8 @@
       <c r="A37" t="b">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
-        <v>41865</v>
+      <c r="B37" s="2">
+        <v>37</v>
       </c>
       <c r="C37">
         <v>25.1</v>
@@ -10482,8 +10491,8 @@
       <c r="A38" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>41866</v>
+      <c r="B38" s="2">
+        <v>38</v>
       </c>
       <c r="C38">
         <v>25.233333330000001</v>
@@ -10496,8 +10505,8 @@
       <c r="A39" t="b">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
-        <v>41867</v>
+      <c r="B39" s="2">
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -10510,8 +10519,8 @@
       <c r="A40" t="b">
         <v>0</v>
       </c>
-      <c r="B40" s="1">
-        <v>41868</v>
+      <c r="B40" s="2">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -10524,8 +10533,8 @@
       <c r="A41" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="1">
-        <v>41869</v>
+      <c r="B41" s="2">
+        <v>41</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -10538,8 +10547,8 @@
       <c r="A42" t="b">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
-        <v>41870</v>
+      <c r="B42" s="2">
+        <v>42</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -10552,8 +10561,8 @@
       <c r="A43" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="1">
-        <v>41871</v>
+      <c r="B43" s="2">
+        <v>43</v>
       </c>
       <c r="C43">
         <v>25.883333329999999</v>
@@ -10566,8 +10575,8 @@
       <c r="A44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="1">
-        <v>41872</v>
+      <c r="B44" s="2">
+        <v>44</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -10580,8 +10589,8 @@
       <c r="A45" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="1">
-        <v>41873</v>
+      <c r="B45" s="2">
+        <v>45</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -10594,8 +10603,8 @@
       <c r="A46" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="1">
-        <v>41874</v>
+      <c r="B46" s="2">
+        <v>46</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -10608,8 +10617,8 @@
       <c r="A47" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="1">
-        <v>41875</v>
+      <c r="B47" s="2">
+        <v>47</v>
       </c>
       <c r="C47">
         <v>26.383333329999999</v>
@@ -10622,8 +10631,8 @@
       <c r="A48" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="1">
-        <v>41876</v>
+      <c r="B48" s="2">
+        <v>48</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -10636,8 +10645,8 @@
       <c r="A49" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
-        <v>41877</v>
+      <c r="B49" s="2">
+        <v>49</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -10650,8 +10659,8 @@
       <c r="A50" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>41878</v>
+      <c r="B50" s="2">
+        <v>50</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -10664,8 +10673,8 @@
       <c r="A51" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
-        <v>41879</v>
+      <c r="B51" s="2">
+        <v>51</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -10678,8 +10687,8 @@
       <c r="A52" t="b">
         <v>1</v>
       </c>
-      <c r="B52" s="1">
-        <v>41880</v>
+      <c r="B52" s="2">
+        <v>52</v>
       </c>
       <c r="C52">
         <v>7.3333333329999997</v>
@@ -10692,8 +10701,8 @@
       <c r="A53" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="1">
-        <v>41881</v>
+      <c r="B53" s="2">
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -10706,8 +10715,8 @@
       <c r="A54" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
-        <v>41882</v>
+      <c r="B54" s="2">
+        <v>54</v>
       </c>
       <c r="C54">
         <v>25.68333333</v>
@@ -10720,8 +10729,8 @@
       <c r="A55" t="b">
         <v>1</v>
       </c>
-      <c r="B55" s="1">
-        <v>41883</v>
+      <c r="B55" s="2">
+        <v>55</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -10734,8 +10743,8 @@
       <c r="A56" t="b">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
-        <v>41884</v>
+      <c r="B56" s="2">
+        <v>56</v>
       </c>
       <c r="C56">
         <v>24.783333330000001</v>
@@ -10746,6 +10755,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/visualizations.xlsx
+++ b/visualizations.xlsx
@@ -92,67 +92,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Minutes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Exercised Per Day</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -540,385 +480,47 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="2058063840"/>
-        <c:axId val="2058064928"/>
+        <c:axId val="-431189680"/>
+        <c:axId val="-431190768"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Temperature High</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'p2'!$B$1:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'p2'!$D$1:$D$56</c:f>
+              <c:f>'p2'!$E$1:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>73</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="52">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -928,13 +530,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2058070368"/>
-        <c:axId val="2058062208"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="2058063840"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-630782352"/>
+        <c:axId val="-630793776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-431189680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,24 +571,28 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058064928"/>
+        <c:crossAx val="-431190768"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="7"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2058064928"/>
+        <c:axId val="-431190768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1027,79 +633,49 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058063840"/>
+        <c:crossAx val="-431189680"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058062208"/>
+        <c:axId val="-630793776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2058070368"/>
+        <c:crossAx val="-630782352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2058070368"/>
+        <c:axId val="-630782352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058062208"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-630793776"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -1109,37 +685,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1191,62 +736,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Minutes Exercised Per Day</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1634,385 +1124,47 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="2058068736"/>
-        <c:axId val="2058069280"/>
+        <c:axId val="-651437600"/>
+        <c:axId val="-651437056"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Temperature High</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'p3'!$B$1:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'p3'!$D$1:$D$56</c:f>
+              <c:f>'p3'!$E$1:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>83</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="45">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2022,13 +1174,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2058069824"/>
-        <c:axId val="2058066016"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="2058068736"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-429378240"/>
+        <c:axId val="-630786160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-651437600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,26 +1215,27 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058069280"/>
+        <c:crossAx val="-651437056"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="7"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2058069280"/>
+        <c:axId val="-651437056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2123,78 +1276,49 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058068736"/>
+        <c:crossAx val="-651437600"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058066016"/>
+        <c:axId val="-630786160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2058069824"/>
+        <c:crossAx val="-429378240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2058069824"/>
+        <c:axId val="-429378240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058066016"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-630786160"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -2204,37 +1328,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2286,63 +1379,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Minutes Exercised Per Day</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2730,385 +1767,47 @@
         </c:dLbls>
         <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="2058074720"/>
-        <c:axId val="2058064384"/>
+        <c:axId val="-429328064"/>
+        <c:axId val="-527272288"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Temperature High</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'p5'!$B$1:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'p5'!$D$1:$D$56</c:f>
+              <c:f>'p5'!$E$1:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="50">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3118,13 +1817,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2058063296"/>
-        <c:axId val="2058070912"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="2058074720"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-651433248"/>
+        <c:axId val="-651435968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-429328064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,26 +1858,27 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058064384"/>
+        <c:crossAx val="-527272288"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="7"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2058064384"/>
+        <c:axId val="-527272288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3219,78 +1919,49 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058074720"/>
+        <c:crossAx val="-429328064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058070912"/>
+        <c:axId val="-651435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2058063296"/>
+        <c:crossAx val="-651433248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2058063296"/>
+        <c:axId val="-651433248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058070912"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-651435968"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -3300,38 +1971,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3383,63 +2022,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Minutes Exercised Per Day</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3825,387 +2408,49 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="11"/>
+        <c:gapWidth val="10"/>
         <c:overlap val="-27"/>
-        <c:axId val="2058072000"/>
-        <c:axId val="2058061664"/>
+        <c:axId val="-429371168"/>
+        <c:axId val="-429378784"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Temperature High</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'p7'!$B$1:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'p7'!$D$1:$D$56</c:f>
+              <c:f>'p7'!$E$1:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="39">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4215,13 +2460,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2058073632"/>
-        <c:axId val="2058072544"/>
-      </c:lineChart>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-630788336"/>
+        <c:axId val="-630794864"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2058072000"/>
+        <c:axId val="-429371168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4256,25 +2501,28 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058061664"/>
+        <c:crossAx val="-429378784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="7"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058061664"/>
+        <c:axId val="-429378784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4315,78 +2563,49 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058072000"/>
+        <c:crossAx val="-429371168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058072544"/>
+        <c:axId val="-630794864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2058073632"/>
+        <c:crossAx val="-630788336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2058073632"/>
+        <c:axId val="-630788336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058072544"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-630794864"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -4396,38 +2615,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6641,16 +4828,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6669,6 +4856,734 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="1714499"/>
+          <a:ext cx="2457450" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="1714499"/>
+          <a:ext cx="1609725" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048376" y="1666875"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="1619249"/>
+          <a:ext cx="523875" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>System change email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9086850" y="1771650"/>
+          <a:ext cx="85725" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781926" y="1714500"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972801" y="1552574"/>
+          <a:ext cx="904874" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>End of study</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> reminder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067551" y="1773622"/>
+          <a:ext cx="247650" cy="1102928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905626" y="1638298"/>
+          <a:ext cx="552450" cy="533402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Busy with new job</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="1783147"/>
+          <a:ext cx="361950" cy="1102928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372726" y="1657349"/>
+          <a:ext cx="552450" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Friends in town</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6676,16 +5591,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6704,6 +5619,607 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448176" y="552450"/>
+          <a:ext cx="1476374" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953376" y="552450"/>
+          <a:ext cx="1076324" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="609600"/>
+          <a:ext cx="219075" cy="1102928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="590550"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="590550"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029324" y="466725"/>
+          <a:ext cx="657225" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Computer issue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="523875"/>
+          <a:ext cx="209550" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819901" y="438150"/>
+          <a:ext cx="933450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>System change email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582026" y="495299"/>
+          <a:ext cx="619124" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>End of study</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> reminder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6711,16 +6227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6739,6 +6255,435 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="523875"/>
+          <a:ext cx="952500" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="523875"/>
+          <a:ext cx="866775" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="581025"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="552450"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="571500"/>
+          <a:ext cx="933450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>System change email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="561975"/>
+          <a:ext cx="619124" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>End of study</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> reminder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6746,16 +6691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6772,6 +6717,435 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="371475"/>
+          <a:ext cx="1276350" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810499" y="371475"/>
+          <a:ext cx="1647825" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="419100"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="314325"/>
+          <a:ext cx="685800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="428625"/>
+          <a:ext cx="933450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>System change email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="428625"/>
+          <a:ext cx="619124" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>End of study</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> reminder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7040,10 +7414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7426,7 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>0</v>
       </c>
@@ -7065,26 +7439,10 @@
       <c r="D1">
         <v>68</v>
       </c>
-      <c r="F1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>41810</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="J1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1">
-        <v>41818</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -7097,26 +7455,10 @@
       <c r="D2">
         <v>72</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>41811</v>
-      </c>
-      <c r="H2">
-        <v>25.366666670000001</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>41819</v>
-      </c>
-      <c r="L2">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -7129,26 +7471,10 @@
       <c r="D3">
         <v>77</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>41812</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>41826</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -7161,26 +7487,10 @@
       <c r="D4">
         <v>77</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H4">
-        <v>40.35</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>41827</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -7193,26 +7503,10 @@
       <c r="D5">
         <v>76</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>41814</v>
-      </c>
-      <c r="H5">
-        <v>27</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>41828</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -7225,26 +7519,10 @@
       <c r="D6">
         <v>79</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>41815</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>41829</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -7257,26 +7535,10 @@
       <c r="D7">
         <v>70</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>41816</v>
-      </c>
-      <c r="H7">
-        <v>67.533333330000005</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>41830</v>
-      </c>
-      <c r="L7">
-        <v>26.166666670000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -7289,26 +7551,13 @@
       <c r="D8">
         <v>70</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>41817</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>41831</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -7321,26 +7570,10 @@
       <c r="D9">
         <v>68</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>41839</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>41832</v>
-      </c>
-      <c r="L9">
-        <v>80.933333329999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -7353,26 +7586,10 @@
       <c r="D10">
         <v>69</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>41840</v>
-      </c>
-      <c r="H10">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>41833</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -7385,26 +7602,13 @@
       <c r="D11">
         <v>84</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>41841</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>41834</v>
-      </c>
-      <c r="L11">
-        <v>40.866666670000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -7417,26 +7621,13 @@
       <c r="D12">
         <v>81</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>41842</v>
-      </c>
-      <c r="H12">
-        <v>39.683333330000004</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>41835</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -7449,26 +7640,13 @@
       <c r="D13">
         <v>86</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>41843</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>41836</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -7481,26 +7659,13 @@
       <c r="D14">
         <v>80</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>41844</v>
-      </c>
-      <c r="H14">
-        <v>25.65</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>41837</v>
-      </c>
-      <c r="L14">
-        <v>26.783333330000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -7513,26 +7678,10 @@
       <c r="D15">
         <v>84</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>41845</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>41838</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -7545,26 +7694,10 @@
       <c r="D16">
         <v>88</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>41846</v>
-      </c>
-      <c r="H16">
-        <v>81.566666670000004</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>41848</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -7577,26 +7710,10 @@
       <c r="D17">
         <v>90</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>41847</v>
-      </c>
-      <c r="H17">
-        <v>66.683333329999996</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>41849</v>
-      </c>
-      <c r="L17">
-        <v>40.283333329999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -7609,17 +7726,9 @@
       <c r="D18">
         <v>85</v>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>41850</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -7632,17 +7741,9 @@
       <c r="D19">
         <v>82</v>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>41851</v>
-      </c>
-      <c r="L19">
-        <v>26.083333329999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -7655,17 +7756,9 @@
       <c r="D20">
         <v>88</v>
       </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>41852</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -7678,17 +7771,9 @@
       <c r="D21">
         <v>88</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>41853</v>
-      </c>
-      <c r="L21">
-        <v>71.983333329999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -7701,17 +7786,9 @@
       <c r="D22">
         <v>80</v>
       </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>41854</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -7724,17 +7801,12 @@
       <c r="D23">
         <v>75</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>41855</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>85</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -7747,17 +7819,9 @@
       <c r="D24">
         <v>78</v>
       </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>41856</v>
-      </c>
-      <c r="L24">
-        <v>40.633333329999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -7770,17 +7834,9 @@
       <c r="D25">
         <v>67</v>
       </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>41857</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -7793,17 +7849,9 @@
       <c r="D26">
         <v>75</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>41858</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -7816,17 +7864,9 @@
       <c r="D27">
         <v>70</v>
       </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>41859</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <v>0</v>
       </c>
@@ -7839,17 +7879,9 @@
       <c r="D28">
         <v>66</v>
       </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>41860</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
         <v>0</v>
       </c>
@@ -7862,17 +7894,9 @@
       <c r="D29">
         <v>69</v>
       </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>41861</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <v>0</v>
       </c>
@@ -7885,17 +7909,9 @@
       <c r="D30">
         <v>73</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>41862</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <v>0</v>
       </c>
@@ -7908,17 +7924,12 @@
       <c r="D31">
         <v>79</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
-        <v>41863</v>
-      </c>
-      <c r="L31">
-        <v>28.716666669999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>85</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <v>0</v>
       </c>
@@ -7931,17 +7942,9 @@
       <c r="D32">
         <v>83</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>41864</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <v>1</v>
       </c>
@@ -7954,17 +7957,9 @@
       <c r="D33">
         <v>87</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>41865</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <v>1</v>
       </c>
@@ -7977,17 +7972,9 @@
       <c r="D34">
         <v>86</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
-        <v>41866</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <v>1</v>
       </c>
@@ -8000,17 +7987,9 @@
       <c r="D35">
         <v>85</v>
       </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <v>41867</v>
-      </c>
-      <c r="L35">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <v>1</v>
       </c>
@@ -8023,17 +8002,9 @@
       <c r="D36">
         <v>87</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
-        <v>41868</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="b">
         <v>1</v>
       </c>
@@ -8046,17 +8017,9 @@
       <c r="D37">
         <v>84</v>
       </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>41869</v>
-      </c>
-      <c r="L37">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="b">
         <v>1</v>
       </c>
@@ -8069,17 +8032,9 @@
       <c r="D38">
         <v>85</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <v>41870</v>
-      </c>
-      <c r="L38">
-        <v>60.633333329999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <v>1</v>
       </c>
@@ -8092,17 +8047,9 @@
       <c r="D39">
         <v>89</v>
       </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>41871</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <v>1</v>
       </c>
@@ -8116,7 +8063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
         <v>1</v>
       </c>
@@ -8130,7 +8077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="b">
         <v>1</v>
       </c>
@@ -8144,7 +8091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="b">
         <v>1</v>
       </c>
@@ -8157,8 +8104,11 @@
       <c r="D43">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="b">
         <v>1</v>
       </c>
@@ -8171,8 +8121,11 @@
       <c r="D44">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="b">
         <v>1</v>
       </c>
@@ -8185,8 +8138,11 @@
       <c r="D45">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="b">
         <v>1</v>
       </c>
@@ -8199,8 +8155,11 @@
       <c r="D46">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="b">
         <v>1</v>
       </c>
@@ -8214,7 +8173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="b">
         <v>1</v>
       </c>
@@ -8228,7 +8187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -8242,7 +8201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -8256,7 +8215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -8270,7 +8229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -8284,7 +8243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="b">
         <v>1</v>
       </c>
@@ -8297,8 +8256,11 @@
       <c r="D53">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="b">
         <v>1</v>
       </c>
@@ -8312,7 +8274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="b">
         <v>1</v>
       </c>
@@ -8326,7 +8288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <v>1</v>
       </c>
@@ -8349,10 +8311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8361,7 +8323,7 @@
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>0</v>
       </c>
@@ -8375,7 +8337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -8389,7 +8351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -8403,7 +8365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -8417,7 +8379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -8431,7 +8393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -8445,7 +8407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -8459,7 +8421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -8473,7 +8435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>0</v>
       </c>
@@ -8487,7 +8449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>0</v>
       </c>
@@ -8501,7 +8463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>0</v>
       </c>
@@ -8515,7 +8477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>0</v>
       </c>
@@ -8528,8 +8490,11 @@
       <c r="D12">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>0</v>
       </c>
@@ -8543,7 +8508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -8557,7 +8522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -8571,7 +8536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -8585,7 +8550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -8599,7 +8564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -8613,7 +8578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -8627,7 +8592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -8641,7 +8606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -8655,7 +8620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -8669,7 +8634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <v>1</v>
       </c>
@@ -8683,7 +8648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -8697,7 +8662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <v>1</v>
       </c>
@@ -8711,7 +8676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <v>1</v>
       </c>
@@ -8724,8 +8689,11 @@
       <c r="D26">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -8739,7 +8707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <v>0</v>
       </c>
@@ -8753,7 +8721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
         <v>0</v>
       </c>
@@ -8767,7 +8735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <v>0</v>
       </c>
@@ -8781,7 +8749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
         <v>0</v>
       </c>
@@ -8795,7 +8763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <v>0</v>
       </c>
@@ -8809,7 +8777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <v>0</v>
       </c>
@@ -8823,7 +8791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <v>0</v>
       </c>
@@ -8837,7 +8805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <v>0</v>
       </c>
@@ -8851,7 +8819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <v>0</v>
       </c>
@@ -8865,7 +8833,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="b">
         <v>0</v>
       </c>
@@ -8879,7 +8847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="b">
         <v>0</v>
       </c>
@@ -8893,7 +8861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <v>0</v>
       </c>
@@ -8907,7 +8875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <v>0</v>
       </c>
@@ -8921,7 +8889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
         <v>0</v>
       </c>
@@ -8935,7 +8903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="b">
         <v>0</v>
       </c>
@@ -8949,7 +8917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="b">
         <v>0</v>
       </c>
@@ -8963,7 +8931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="b">
         <v>0</v>
       </c>
@@ -8977,7 +8945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="b">
         <v>0</v>
       </c>
@@ -8991,7 +8959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="b">
         <v>0</v>
       </c>
@@ -9004,8 +8972,11 @@
       <c r="D46">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="b">
         <v>1</v>
       </c>
@@ -9019,7 +8990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="b">
         <v>1</v>
       </c>
@@ -9033,7 +9004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -9047,7 +9018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -9061,7 +9032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -9075,7 +9046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -9089,7 +9060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="b">
         <v>1</v>
       </c>
@@ -9102,8 +9073,11 @@
       <c r="D53">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="b">
         <v>1</v>
       </c>
@@ -9117,7 +9091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="b">
         <v>1</v>
       </c>
@@ -9131,7 +9105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <v>1</v>
       </c>
@@ -9154,10 +9128,826 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>26.5</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>26.733333330000001</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>40.866666670000001</v>
+      </c>
+      <c r="D4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>25.2</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>39.883333329999999</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>62.35</v>
+      </c>
+      <c r="D10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>40.216666670000002</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>25.95</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>25.883333329999999</v>
+      </c>
+      <c r="D18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>40.266666669999999</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>68.95</v>
+      </c>
+      <c r="D23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>81.316666670000004</v>
+      </c>
+      <c r="D25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25.25</v>
+      </c>
+      <c r="D31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>25.516666669999999</v>
+      </c>
+      <c r="D40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>25.2</v>
+      </c>
+      <c r="D41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>26.1</v>
+      </c>
+      <c r="D42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>25.31666667</v>
+      </c>
+      <c r="D45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>25.18333333</v>
+      </c>
+      <c r="D48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>25.883333329999999</v>
+      </c>
+      <c r="D49">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>26.1</v>
+      </c>
+      <c r="D52">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>25.633333329999999</v>
+      </c>
+      <c r="D54">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="b">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9176,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9977,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>26.5</v>
+        <v>21.633333329999999</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9201,10 +9991,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>26.733333330000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9215,10 +10005,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>40.866666670000001</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9232,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +10033,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>25.2</v>
+        <v>24.366666670000001</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9257,10 +10047,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>39.883333329999999</v>
+        <v>39.833333330000002</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9274,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9288,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9299,10 +10089,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>62.35</v>
+        <v>25.116666670000001</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9313,10 +10103,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>40.216666670000002</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,12 +10120,12 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>13</v>
@@ -9344,26 +10134,26 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>14.383333329999999</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
@@ -9372,12 +10162,12 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>16</v>
@@ -9386,40 +10176,43 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>25.95</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>25.883333329999999</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2">
         <v>19</v>
@@ -9428,10 +10221,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -9442,10 +10235,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -9453,43 +10246,43 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>40.266666669999999</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>25.483333330000001</v>
       </c>
       <c r="D22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>68.95</v>
+        <v>72.666666669999998</v>
       </c>
       <c r="D23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>24</v>
@@ -9498,26 +10291,26 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>81.316666670000004</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
         <v>26</v>
@@ -9526,12 +10319,12 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>27</v>
@@ -9540,26 +10333,26 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>30.55</v>
       </c>
       <c r="D28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
         <v>29</v>
@@ -9568,38 +10361,41 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>75.766666670000006</v>
       </c>
       <c r="D30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="b">
         <v>0</v>
       </c>
@@ -9610,10 +10406,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="b">
         <v>0</v>
       </c>
@@ -9624,10 +10420,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="b">
         <v>0</v>
       </c>
@@ -9638,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="b">
         <v>0</v>
       </c>
@@ -9649,13 +10445,13 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>29.283333330000001</v>
       </c>
       <c r="D35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="b">
         <v>0</v>
       </c>
@@ -9666,10 +10462,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="b">
         <v>0</v>
       </c>
@@ -9677,13 +10473,13 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>25.1</v>
       </c>
       <c r="D37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="b">
         <v>0</v>
       </c>
@@ -9691,13 +10487,13 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>25.233333330000001</v>
       </c>
       <c r="D38">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="b">
         <v>0</v>
       </c>
@@ -9708,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="b">
         <v>0</v>
       </c>
@@ -9719,85 +10515,88 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>25.516666669999999</v>
+        <v>0</v>
       </c>
       <c r="D40">
+        <v>82</v>
+      </c>
+      <c r="E40">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>25.883333329999999</v>
       </c>
       <c r="D43">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>25.31666667</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2">
         <v>46</v>
@@ -9806,38 +10605,38 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>26.383333329999999</v>
       </c>
       <c r="D47">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>25.18333333</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="b">
         <v>1</v>
       </c>
@@ -9845,13 +10644,13 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>25.883333329999999</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="b">
         <v>1</v>
       </c>
@@ -9862,10 +10661,13 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E50">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>1</v>
       </c>
@@ -9876,10 +10678,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -9887,13 +10689,13 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>26.1</v>
+        <v>7.3333333329999997</v>
       </c>
       <c r="D52">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="b">
         <v>1</v>
       </c>
@@ -9904,10 +10706,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="b">
         <v>1</v>
       </c>
@@ -9915,13 +10717,13 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>25.633333329999999</v>
+        <v>25.68333333</v>
       </c>
       <c r="D54">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="b">
         <v>1</v>
       </c>
@@ -9932,814 +10734,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2">
-        <v>56</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>21.633333329999999</v>
-      </c>
-      <c r="D2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>24.366666670000001</v>
-      </c>
-      <c r="D6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>39.833333330000002</v>
-      </c>
-      <c r="D7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>25.116666670000001</v>
-      </c>
-      <c r="D10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>14.383333329999999</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>25.483333330000001</v>
-      </c>
-      <c r="D22">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>72.666666669999998</v>
-      </c>
-      <c r="D23">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>30.55</v>
-      </c>
-      <c r="D28">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>75.766666670000006</v>
-      </c>
-      <c r="D30">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="b">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>29.283333330000001</v>
-      </c>
-      <c r="D35">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="b">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>25.1</v>
-      </c>
-      <c r="D37">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="b">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>25.233333330000001</v>
-      </c>
-      <c r="D38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="2">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2">
-        <v>41</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="b">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>25.883333329999999</v>
-      </c>
-      <c r="D43">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2">
-        <v>46</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>26.383333329999999</v>
-      </c>
-      <c r="D47">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2">
-        <v>50</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2">
-        <v>51</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="b">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2">
-        <v>52</v>
-      </c>
-      <c r="C52">
-        <v>7.3333333329999997</v>
-      </c>
-      <c r="D52">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2">
-        <v>53</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2">
-        <v>54</v>
-      </c>
-      <c r="C54">
-        <v>25.68333333</v>
-      </c>
-      <c r="D54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2">
-        <v>55</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="b">
         <v>1</v>
       </c>
